--- a/excelTemplate/DemurrageTemplate.xlsx
+++ b/excelTemplate/DemurrageTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>S/N</t>
   </si>
@@ -226,6 +229,20 @@
   </si>
   <si>
     <t>&lt;%=rs1.receipt_no%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bank_reference_no%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check_no%&gt;</t>
+  </si>
+  <si>
+    <t>Bank Reference#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check#</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +412,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,11 +427,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -699,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -714,13 +732,15 @@
     <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="45.625" style="19" customWidth="1"/>
     <col min="11" max="11" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="19"/>
+    <col min="12" max="12" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="47.1" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="47.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,8 +777,14 @@
       <c r="L1" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="M1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -795,8 +821,15 @@
       <c r="L2" s="19" t="s">
         <v>44</v>
       </c>
+      <c r="M2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/DemurrageTemplate.xlsx
+++ b/excelTemplate/DemurrageTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>S/N</t>
   </si>
@@ -220,10 +225,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.payer%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.receipt_date%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -243,14 +244,30 @@
   </si>
   <si>
     <t>Check#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_demurrage_party%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_deposit_party%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demurrage party</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deposit party</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +444,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -716,14 +741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
@@ -732,15 +757,16 @@
     <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="45.625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="19"/>
+    <col min="10" max="10" width="45" style="19" customWidth="1"/>
+    <col min="11" max="11" width="45.625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="47.1" customHeight="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,23 +794,26 @@
       <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -812,24 +841,27 @@
       <c r="I2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="N2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:O1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -837,21 +869,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="13" max="13" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,12 +962,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelTemplate/DemurrageTemplate.xlsx
+++ b/excelTemplate/DemurrageTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>S/N</t>
   </si>
@@ -262,12 +262,52 @@
     <t>Deposit party</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Vessel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voyage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.vessel_name%&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.vessel_voyage%&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staring Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.staring_date%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.free_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overdue Days</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.overdue_days%&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +354,21 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +490,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,19 +812,21 @@
     <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.625" style="19" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="45" style="19" customWidth="1"/>
-    <col min="11" max="11" width="45.625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="19"/>
+    <col min="6" max="7" width="18.375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.5" style="19" customWidth="1"/>
+    <col min="12" max="13" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="45" style="19" customWidth="1"/>
+    <col min="16" max="16" width="45.625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,38 +842,53 @@
       <c r="E1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -829,39 +904,54 @@
       <c r="E2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:T1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/DemurrageTemplate.xlsx
+++ b/excelTemplate/DemurrageTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>S/N</t>
   </si>
@@ -301,6 +301,14 @@
   <si>
     <t>&lt;%=rs1.overdue_days%&gt;</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Invoice</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_no%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -800,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,17 +824,17 @@
     <col min="8" max="8" width="20.5" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="20.5" style="19" customWidth="1"/>
     <col min="12" max="13" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="45" style="19" customWidth="1"/>
-    <col min="16" max="16" width="45.625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="19"/>
+    <col min="14" max="15" width="24.375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="45" style="19" customWidth="1"/>
+    <col min="17" max="17" width="45.625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,25 +878,28 @@
         <v>31</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -931,27 +942,30 @@
       <c r="N2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1"/>
+  <autoFilter ref="A1:U1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/DemurrageTemplate.xlsx
+++ b/excelTemplate/DemurrageTemplate.xlsx
@@ -169,10 +169,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Arrival Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Return Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -308,6 +304,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_no%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,52 +851,52 @@
         <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="T1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -904,64 +904,64 @@
         <v>23</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/DemurrageTemplate.xlsx
+++ b/excelTemplate/DemurrageTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68450D93-845E-4441-8059-3521E2D5089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>S/N</t>
   </si>
@@ -52,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -100,6 +102,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -310,12 +313,20 @@
     <t>Discharge Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>B/C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bank%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,17 +362,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -433,32 +447,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,39 +484,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,9 +521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -562,9 +561,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -807,165 +806,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="23.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="20.5" style="19" customWidth="1"/>
-    <col min="12" max="13" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="24.375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="45" style="19" customWidth="1"/>
-    <col min="17" max="17" width="45.625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="19"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.33203125" customWidth="1"/>
+    <col min="16" max="16" width="45" customWidth="1"/>
+    <col min="17" max="17" width="45.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:V1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -973,21 +977,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,52 +1013,52 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1066,12 +1070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
